--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_4.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_4.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9634079801400182</v>
+        <v>0.939159083831543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7716599552807888</v>
+        <v>0.6984236734937661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78715977164116</v>
+        <v>0.7780074030307317</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9484006406335586</v>
+        <v>0.9636962102245331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1523152595582072</v>
+        <v>0.1953168137719466</v>
       </c>
       <c r="G2" t="n">
-        <v>1.526910930446594</v>
+        <v>2.016642283978485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7613171556540501</v>
+        <v>0.794054647488729</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1619844607637658</v>
+        <v>0.1987022034447921</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4376755753554626</v>
+        <v>1.267663423863457</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3902758762186144</v>
+        <v>0.4419466186904778</v>
       </c>
       <c r="L2" t="n">
-        <v>3.341889271038838</v>
+        <v>0.9171527950046543</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3964223311363112</v>
+        <v>0.4489068361503137</v>
       </c>
       <c r="N2" t="n">
-        <v>133.7636056600425</v>
+        <v>37.26626470556591</v>
       </c>
       <c r="O2" t="n">
-        <v>275.098778203259</v>
+        <v>74.23084829379172</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9557849108015527</v>
+        <v>0.938924762029549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7645320681390871</v>
+        <v>0.6980422961742043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7804970117041565</v>
+        <v>0.7780151817785873</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9368627335672131</v>
+        <v>0.9636517868477135</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1840464891913765</v>
+        <v>0.1960690540511042</v>
       </c>
       <c r="G3" t="n">
-        <v>1.574575144584055</v>
+        <v>2.019192555870475</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7851494616196935</v>
+        <v>0.7940268233586871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1982050975591118</v>
+        <v>0.1989453467340496</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4706280548911473</v>
+        <v>1.273029796662703</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4290063976112437</v>
+        <v>0.4427968541567388</v>
       </c>
       <c r="L3" t="n">
-        <v>3.829765708700627</v>
+        <v>0.9168337185083221</v>
       </c>
       <c r="M3" t="n">
-        <v>0.435762819524557</v>
+        <v>0.4497704619752447</v>
       </c>
       <c r="N3" t="n">
-        <v>133.3851337892744</v>
+        <v>37.25857673042654</v>
       </c>
       <c r="O3" t="n">
-        <v>274.7203063324908</v>
+        <v>74.22316031865236</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.954944762768644</v>
+        <v>0.9386850300196863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7636695926009102</v>
+        <v>0.6976559941599245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7799085652883357</v>
+        <v>0.7780177422911867</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9355443205081191</v>
+        <v>0.9636048076263365</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1875436278076504</v>
+        <v>0.1968386626512752</v>
       </c>
       <c r="G4" t="n">
-        <v>1.580342522479179</v>
+        <v>2.021775759218721</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7872543003290007</v>
+        <v>0.7940176645535864</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2023439556973416</v>
+        <v>0.1992024789745532</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4726112428699224</v>
+        <v>1.278448118959873</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4330630760150885</v>
+        <v>0.4436650342896938</v>
       </c>
       <c r="L4" t="n">
-        <v>3.883535182806781</v>
+        <v>0.9165072749204238</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4398833865580717</v>
+        <v>0.450652315077432</v>
       </c>
       <c r="N4" t="n">
-        <v>133.3474875579941</v>
+        <v>37.25074171419538</v>
       </c>
       <c r="O4" t="n">
-        <v>274.6826601012105</v>
+        <v>74.21532530242121</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9465542487837605</v>
+        <v>0.9384398368334134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7548479488324819</v>
+        <v>0.6972646305435513</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7773966632871441</v>
+        <v>0.7780149226803652</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9235945690539094</v>
+        <v>0.9635551998763368</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2224693662698761</v>
+        <v>0.1976258031961157</v>
       </c>
       <c r="G5" t="n">
-        <v>1.639332894978594</v>
+        <v>2.024392809523473</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7962392281388169</v>
+        <v>0.7940277501380044</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2398574843406855</v>
+        <v>0.1994739979893403</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4763094122241175</v>
+        <v>1.28391927436362</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4716665837960923</v>
+        <v>0.4445512379873839</v>
       </c>
       <c r="L5" t="n">
-        <v>4.420528077839329</v>
+        <v>0.9161733948369885</v>
       </c>
       <c r="M5" t="n">
-        <v>0.479094860997276</v>
+        <v>0.451552475597482</v>
       </c>
       <c r="N5" t="n">
-        <v>133.005931733081</v>
+        <v>37.24275983843458</v>
       </c>
       <c r="O5" t="n">
-        <v>274.3411042762974</v>
+        <v>74.2073434266604</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9456366342935577</v>
+        <v>0.9381889290949821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7542180809448633</v>
+        <v>0.6968680830603939</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7762441395345144</v>
+        <v>0.7780066029522439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9222218638668035</v>
+        <v>0.9635029074787081</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2262889610827457</v>
+        <v>0.1984312890945437</v>
       </c>
       <c r="G6" t="n">
-        <v>1.643544824443374</v>
+        <v>2.02704452436928</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8003617387748062</v>
+        <v>0.7940575093230886</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2441667802748048</v>
+        <v>0.1997602109356053</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4901860687384695</v>
+        <v>1.289444782334697</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4756983929789397</v>
+        <v>0.4454562706871951</v>
       </c>
       <c r="L6" t="n">
-        <v>4.479255405212307</v>
+        <v>0.9158317332357203</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4831901671444227</v>
+        <v>0.4524717616576144</v>
       </c>
       <c r="N6" t="n">
-        <v>132.9718850150936</v>
+        <v>37.23462477887214</v>
       </c>
       <c r="O6" t="n">
-        <v>274.30705755831</v>
+        <v>74.19920836709797</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9442274096927205</v>
+        <v>0.9379321561898415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7528248172497239</v>
+        <v>0.6964662232918657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.775695096800411</v>
+        <v>0.7779924954369892</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9202682317209436</v>
+        <v>0.9634479231530884</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2321548961055644</v>
+        <v>0.1992556038625223</v>
       </c>
       <c r="G7" t="n">
-        <v>1.65286158518816</v>
+        <v>2.029731762491822</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8023256327993671</v>
+        <v>0.794107971087154</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2502997643576207</v>
+        <v>0.2000611576610888</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4951784913769249</v>
+        <v>1.295030808547918</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4818245490897743</v>
+        <v>0.4463805594585434</v>
       </c>
       <c r="L7" t="n">
-        <v>4.569445779665891</v>
+        <v>0.915482085024465</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4894128040900936</v>
+        <v>0.4534106070531617</v>
       </c>
       <c r="N7" t="n">
-        <v>132.9207009489425</v>
+        <v>37.22633367385354</v>
       </c>
       <c r="O7" t="n">
-        <v>274.2558734921589</v>
+        <v>74.19091726207935</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9390782258340825</v>
+        <v>0.9376694548981933</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7470902578458458</v>
+        <v>0.6960588929698777</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7742244299780523</v>
+        <v>0.777971732460374</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9137944449800528</v>
+        <v>0.9633903959572104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2535885113840448</v>
+        <v>0.2000989504537611</v>
       </c>
       <c r="G8" t="n">
-        <v>1.691208610327112</v>
+        <v>2.03245558223054</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8075861227487827</v>
+        <v>0.7941822390506</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2706227464100841</v>
+        <v>0.2003760223253473</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5068627372213925</v>
+        <v>1.300677921986393</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5035757255706879</v>
+        <v>0.4473242117902417</v>
       </c>
       <c r="L8" t="n">
-        <v>4.898993546618719</v>
+        <v>0.9151243641166887</v>
       </c>
       <c r="M8" t="n">
-        <v>0.511506539857382</v>
+        <v>0.454369120965778</v>
       </c>
       <c r="N8" t="n">
-        <v>132.7440847191172</v>
+        <v>37.21788656502969</v>
       </c>
       <c r="O8" t="n">
-        <v>274.0792572623337</v>
+        <v>74.18247015325551</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9350011245459127</v>
+        <v>0.9374006293330783</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7434540591319702</v>
+        <v>0.6956460019085545</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7717328785906401</v>
+        <v>0.7779447741281587</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9079967023148852</v>
+        <v>0.9633301127557494</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2705595543417431</v>
+        <v>0.2009619577216547</v>
       </c>
       <c r="G9" t="n">
-        <v>1.715523887869954</v>
+        <v>2.035216586658796</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8164982575931057</v>
+        <v>0.7942786674418002</v>
       </c>
       <c r="I9" t="n">
-        <v>0.288823441744202</v>
+        <v>0.2007059714858921</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5246447278521876</v>
+        <v>1.306385105656591</v>
       </c>
       <c r="K9" t="n">
-        <v>0.520153395011263</v>
+        <v>0.4482878067956508</v>
       </c>
       <c r="L9" t="n">
-        <v>5.159928029061589</v>
+        <v>0.9147583037727024</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5283452910200566</v>
+        <v>0.4553478916292806</v>
       </c>
       <c r="N9" t="n">
-        <v>132.614526082006</v>
+        <v>37.2092793078047</v>
       </c>
       <c r="O9" t="n">
-        <v>273.9496986252224</v>
+        <v>74.17386289603051</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9337231987770469</v>
+        <v>0.9371254459017224</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7423282941704081</v>
+        <v>0.6952273804338779</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7710463642556503</v>
+        <v>0.7779115156606048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9062673685636223</v>
+        <v>0.9632669836813857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2758789544712171</v>
+        <v>0.2018453755660944</v>
       </c>
       <c r="G10" t="n">
-        <v>1.72305188335159</v>
+        <v>2.038015910387533</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8189538795629762</v>
+        <v>0.7943976310518038</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2942522919977397</v>
+        <v>0.2010514970151845</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5279223628510992</v>
+        <v>1.312158153214035</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5252418057154411</v>
+        <v>0.4492720507288367</v>
       </c>
       <c r="L10" t="n">
-        <v>5.241715278268998</v>
+        <v>0.9143835859087284</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5335138391062808</v>
+        <v>0.4563476364205312</v>
       </c>
       <c r="N10" t="n">
-        <v>132.5755861604435</v>
+        <v>37.2005066843907</v>
       </c>
       <c r="O10" t="n">
-        <v>273.9107587036598</v>
+        <v>74.16509027261652</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.932354290721532</v>
+        <v>0.9368437933914977</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7411632810810749</v>
+        <v>0.6948028781581138</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7701427490368765</v>
+        <v>0.7778706861935405</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9042126640037553</v>
+        <v>0.9632012741309588</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2815770707978073</v>
+        <v>0.2027495610115541</v>
       </c>
       <c r="G11" t="n">
-        <v>1.730842331244353</v>
+        <v>2.040854559060221</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8221860588059091</v>
+        <v>0.7945436756880643</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3007025699516823</v>
+        <v>0.2014111463117991</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5349607075233828</v>
+        <v>1.318002055483905</v>
       </c>
       <c r="K11" t="n">
-        <v>0.53063836159649</v>
+        <v>0.4502772046323844</v>
       </c>
       <c r="L11" t="n">
-        <v>5.329325393821954</v>
+        <v>0.9140000590862948</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5389953853478795</v>
+        <v>0.4573686204932745</v>
       </c>
       <c r="N11" t="n">
-        <v>132.5346981654742</v>
+        <v>37.19156750232017</v>
       </c>
       <c r="O11" t="n">
-        <v>273.8698707086907</v>
+        <v>74.15615109054599</v>
       </c>
     </row>
   </sheetData>
